--- a/biology/Zoologie/Boaedon_fuliginosus/Boaedon_fuliginosus.xlsx
+++ b/biology/Zoologie/Boaedon_fuliginosus/Boaedon_fuliginosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boaedon fuliginosus est une espèce de serpents de la famille des Lamprophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boaedon fuliginosus est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud de l'Arabie ainsi que dans la quasi-totalité de l'Afrique, à l'exception de l'Algérie, de la Tunisie, de la Libye, de l'Égypte et de l'Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud de l'Arabie ainsi que dans la quasi-totalité de l'Afrique, à l'exception de l'Algérie, de la Tunisie, de la Libye, de l'Égypte et de l'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle fait entre 60 et 80 cm, et la femelle entre 90 et 120 cm.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Boaedon fuliginosus fuliginosus (Boie, 1827)
 Boaedon fuliginosus mentalis Günther, 1888</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral)
 Günther, 1888 : Contribution to the knowledge of snakes of tropical Africa. Annals and Magazine of Natural History, sér. 6, vol. 1, p. 322-335 (texte intégral).</t>
